--- a/Tests/File/Employees.xlsx
+++ b/Tests/File/Employees.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R8c31ee2b83744fdfb14696b1aa89059f"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Rdd80e5aa1124480c92da70232e1172d5"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Tests/File/Employees.xlsx
+++ b/Tests/File/Employees.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Rdd80e5aa1124480c92da70232e1172d5"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R574b325b1b424ba7afa3ffe12378c390"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Tests/File/Employees.xlsx
+++ b/Tests/File/Employees.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R574b325b1b424ba7afa3ffe12378c390"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R6a2879f0e67f420b9490e95ed7905ed7"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Tests/File/Employees.xlsx
+++ b/Tests/File/Employees.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R6a2879f0e67f420b9490e95ed7905ed7"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Rae2d92bddb1b49dab2a1cb591df32935"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Tests/File/Employees.xlsx
+++ b/Tests/File/Employees.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Rae2d92bddb1b49dab2a1cb591df32935"/>
+    <x:sheet name="Sheet1" sheetId="1" state="visible" r:id="Rce5ece2e1e09472c940730210e562a7d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -92,7 +92,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="5">
     <x:xf/>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
